--- a/courses/excel/onshore/coe/aibt/promotions/EDISON_SCHOOL_OF_TECH_SCIENCES.xlsx
+++ b/courses/excel/onshore/coe/aibt/promotions/EDISON_SCHOOL_OF_TECH_SCIENCES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zchen\OneDrive - Amadeus Workplace\Documents\Brochure APP\development\documents\new version\onshore\coe\aibt\promotions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/aibt/promotions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC104856B95C5AF65BDE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6BEA872D-FD36-41D9-88A5-93191D8A5126}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_8B0793BC0FAF75555BD102CF759868B099DE04DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A4A772-E5A8-45F8-8796-6A5380798F2C}"/>
   <bookViews>
-    <workbookView xWindow="1008" yWindow="-108" windowWidth="22140" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>vetCode</t>
   </si>
@@ -48,32 +48,80 @@
     <t>location</t>
   </si>
   <si>
+    <t>tuition</t>
+  </si>
+  <si>
+    <t>locationDetail</t>
+  </si>
+  <si>
+    <t>placementDuration</t>
+  </si>
+  <si>
+    <t>placementFee</t>
+  </si>
+  <si>
+    <t>durationMin</t>
+  </si>
+  <si>
+    <t>durationMax</t>
+  </si>
+  <si>
+    <t>tuitionDetail</t>
+  </si>
+  <si>
+    <t>tuitionHalf</t>
+  </si>
+  <si>
+    <t>tuitionHalfDetail</t>
+  </si>
+  <si>
+    <t>placementDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotionValidity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUR30620 / AUR40216</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>EDISON SCHOOL OF TECH SCIENCES</t>
+  </si>
+  <si>
+    <t>23,000 tuition fee + 200 handling fee</t>
+  </si>
+  <si>
     <t>NSW/QLD</t>
   </si>
   <si>
-    <t>Packages</t>
+    <t>Promotion valid until  31th Dec 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103638E/095065G </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certificate III in Light Vehicle Mechanical Technology + Certificate IV in Automotive Mechanical Diagnosis
+</t>
+  </si>
+  <si>
+    <t>These qualifications will only fulfil the academic requirements, not a licensed trade qualification.</t>
   </si>
   <si>
     <t>90 wks Tuition + 14 wks Break</t>
   </si>
   <si>
-    <t>AUR30620 / AUR40216</t>
-  </si>
-  <si>
-    <t>103638E/095065G</t>
-  </si>
-  <si>
-    <t>Certificate III in Light Vehicle Mechanical Technology + Certificate IV in Automotive Mechanical Diagnosis</t>
-  </si>
-  <si>
-    <t>tuition</t>
+    <t>note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +135,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -118,7 +173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,19 +456,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="91.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,42 +501,96 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="120">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>104</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3">
         <v>23000</v>
       </c>
-      <c r="H2" t="s">
-        <v>7</v>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/courses/excel/onshore/coe/aibt/promotions/EDISON_SCHOOL_OF_TECH_SCIENCES.xlsx
+++ b/courses/excel/onshore/coe/aibt/promotions/EDISON_SCHOOL_OF_TECH_SCIENCES.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aibtaus-my.sharepoint.com/personal/f_zhang_aibtglobal_edu_au/Documents/App for VC/excel table template/courses/courses/excel/onshore/coe/aibt/promotions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zelon\Documents\Code\ViskeeConsultancy\Viskee-Consultancy-Configuration\courses\excel\onshore\coe\aibt\promotions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="11_8B0793BC0FAF75555BD102CF759868B099DE04DF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A4A772-E5A8-45F8-8796-6A5380798F2C}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18345" yWindow="-16320" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="courses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -89,9 +88,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>EDISON SCHOOL OF TECH SCIENCES</t>
-  </si>
-  <si>
     <t>23,000 tuition fee + 200 handling fee</t>
   </si>
   <si>
@@ -115,17 +111,20 @@
   </si>
   <si>
     <t>note</t>
+  </si>
+  <si>
+    <t>Packages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -133,13 +132,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -455,36 +454,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="91.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.625" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="91.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,21 +539,21 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="120">
+    <row r="2" spans="1:19" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E2" s="2">
         <v>104</v>
@@ -562,13 +561,13 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="3">
         <v>23000</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>19</v>
@@ -577,16 +576,16 @@
         <v>19</v>
       </c>
       <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
